--- a/Utilitarios/Generador de tablas scaffold.xlsx
+++ b/Utilitarios/Generador de tablas scaffold.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nombre</t>
   </si>
@@ -38,31 +38,13 @@
     <t>nombre</t>
   </si>
   <si>
-    <t>descripcion</t>
-  </si>
-  <si>
-    <t>categoria_ids</t>
-  </si>
-  <si>
-    <t>jornada_id</t>
-  </si>
-  <si>
-    <t>duracion_id</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>ubicacion_id</t>
-  </si>
-  <si>
     <t>Código generado</t>
   </si>
   <si>
-    <t>oferta_educativa</t>
+    <t>duracion</t>
   </si>
 </sst>
 </file>
@@ -390,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -408,14 +390,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D1" t="str">
         <f>CONCATENATE("rails generate scaffold ",B1," ",C3," ",C4," ",C5," ",C6," ",C7," ",C8)</f>
-        <v>rails generate scaffold oferta_educativa nombre:string descripcion:string categoria_ids:integer jornada_id:integer ubicacion_id:integer duracion_id:integer</v>
+        <v xml:space="preserve">rails generate scaffold duracion nombre:string     </v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -431,71 +413,11 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" t="str">
         <f>CONCATENATE(A3,":",B3)</f>
         <v>nombre:string</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" ref="C4:C8" si="0">CONCATENATE(A4,":",B4)</f>
-        <v>descripcion:string</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>categoria_ids:integer</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>jornada_id:integer</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>ubicacion_id:integer</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>duracion_id:integer</v>
       </c>
     </row>
   </sheetData>
